--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E015D47-9518-46EC-BF19-1D70F53A891F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32D28FE-AE3B-4B80-BFD2-8249107352F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -1699,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
   <dimension ref="A1:D6315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6314" workbookViewId="0">
-      <selection activeCell="A6315" sqref="A6315"/>
+    <sheetView tabSelected="1" topLeftCell="A6311" workbookViewId="0">
+      <selection activeCell="D6319" sqref="D6319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90106,7 +90106,7 @@
     </row>
     <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6315">
-        <v>2662011</v>
+        <v>123456</v>
       </c>
       <c r="B6315" s="1" t="s">
         <v>434</v>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32D28FE-AE3B-4B80-BFD2-8249107352F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A419617-382C-4162-A2AA-A991849D583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="434">
   <si>
     <t>Cliente</t>
   </si>
@@ -1328,12 +1328,6 @@
   <si>
     <t>Hijo nuestro bostero</t>
   </si>
-  <si>
-    <t>Quemaste tu chancha</t>
-  </si>
-  <si>
-    <t>Gallina bobo</t>
-  </si>
 </sst>
 </file>
 
@@ -1697,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6315"/>
+  <dimension ref="A1:D6314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6311" workbookViewId="0">
-      <selection activeCell="D6319" sqref="D6319"/>
+    <sheetView tabSelected="1" topLeftCell="A6299" workbookViewId="0">
+      <selection activeCell="A6313" sqref="A6313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90064,7 +90058,7 @@
     </row>
     <row r="6312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6312">
-        <v>350000</v>
+        <v>654321</v>
       </c>
       <c r="B6312" s="1">
         <v>0</v>
@@ -90078,7 +90072,7 @@
     </row>
     <row r="6313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6313">
-        <v>91218</v>
+        <v>123456</v>
       </c>
       <c r="B6313" s="1">
         <v>0</v>
@@ -90102,17 +90096,6 @@
       </c>
       <c r="D6314" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6315">
-        <v>123456</v>
-      </c>
-      <c r="B6315" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C6315" t="s">
-        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A419617-382C-4162-A2AA-A991849D583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E1B355-D9FE-41E1-803F-822449D3D376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="434">
   <si>
     <t>Cliente</t>
   </si>
@@ -1691,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6314"/>
+  <dimension ref="A1:D6315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6299" workbookViewId="0">
-      <selection activeCell="A6313" sqref="A6313"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90098,6 +90098,20 @@
         <v>433</v>
       </c>
     </row>
+    <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6315">
+        <v>123456789</v>
+      </c>
+      <c r="B6315" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6315" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6315" t="s">
+        <v>431</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E1B355-D9FE-41E1-803F-822449D3D376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015D872-F302-4412-BC1E-AF89BF983F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12634" uniqueCount="434">
   <si>
     <t>Cliente</t>
   </si>
@@ -1691,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6315"/>
+  <dimension ref="A1:D6316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A6286" workbookViewId="0">
+      <selection activeCell="F6296" sqref="F6296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90112,6 +90112,20 @@
         <v>431</v>
       </c>
     </row>
+    <row r="6316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6316">
+        <v>987654321</v>
+      </c>
+      <c r="B6316" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6316" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6316" t="s">
+        <v>431</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015D872-F302-4412-BC1E-AF89BF983F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E4A494-C99D-4652-99F6-49A901EEA491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12634" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12636" uniqueCount="435">
   <si>
     <t>Cliente</t>
   </si>
@@ -1328,6 +1328,9 @@
   <si>
     <t>Hijo nuestro bostero</t>
   </si>
+  <si>
+    <t>de</t>
+  </si>
 </sst>
 </file>
 
@@ -1691,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6316"/>
+  <dimension ref="A1:D6317"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6286" workbookViewId="0">
-      <selection activeCell="F6296" sqref="F6296"/>
+      <selection activeCell="E6311" sqref="E6311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90126,6 +90129,20 @@
         <v>431</v>
       </c>
     </row>
+    <row r="6317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6317">
+        <v>1236987452</v>
+      </c>
+      <c r="B6317" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6317" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6317" t="s">
+        <v>434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E4A494-C99D-4652-99F6-49A901EEA491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8807BBEF-D1A1-4FB8-B9E2-91CD863D4037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12636" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12628" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1323,13 +1323,7 @@
     <t>sa</t>
   </si>
   <si>
-    <t>Moriste en Madrid</t>
-  </si>
-  <si>
-    <t>Hijo nuestro bostero</t>
-  </si>
-  <si>
-    <t>de</t>
+    <t>hola</t>
   </si>
 </sst>
 </file>
@@ -1694,14 +1688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6317"/>
+  <dimension ref="A1:D6313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6286" workbookViewId="0">
-      <selection activeCell="E6311" sqref="E6311"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -90075,7 +90068,7 @@
     </row>
     <row r="6313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6313">
-        <v>123456</v>
+        <v>12369874520</v>
       </c>
       <c r="B6313" s="1">
         <v>0</v>
@@ -90084,63 +90077,7 @@
         <v>432</v>
       </c>
       <c r="D6313" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6314">
-        <v>9122018</v>
-      </c>
-      <c r="B6314" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6314" t="s">
         <v>432</v>
-      </c>
-      <c r="D6314" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6315">
-        <v>123456789</v>
-      </c>
-      <c r="B6315" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6315" t="s">
-        <v>431</v>
-      </c>
-      <c r="D6315" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="6316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6316">
-        <v>987654321</v>
-      </c>
-      <c r="B6316" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6316" t="s">
-        <v>431</v>
-      </c>
-      <c r="D6316" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="6317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6317">
-        <v>1236987452</v>
-      </c>
-      <c r="B6317" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6317" t="s">
-        <v>434</v>
-      </c>
-      <c r="D6317" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8807BBEF-D1A1-4FB8-B9E2-91CD863D4037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30768B70-D1F9-482E-8F91-F72285A91280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12628" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1688,9 +1688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6313"/>
+  <dimension ref="A1:D6314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6281" workbookViewId="0">
+      <selection activeCell="A6315" sqref="A6315"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -90080,6 +90082,20 @@
         <v>432</v>
       </c>
     </row>
+    <row r="6314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6314">
+        <v>123789456</v>
+      </c>
+      <c r="B6314" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6314" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6314" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30768B70-D1F9-482E-8F91-F72285A91280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECF2173-6BA7-495B-B1D1-F2D03954C086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1688,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6314"/>
+  <dimension ref="A1:D6315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6281" workbookViewId="0">
-      <selection activeCell="A6315" sqref="A6315"/>
+      <selection activeCell="B6314" sqref="B6314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90096,6 +90096,20 @@
         <v>432</v>
       </c>
     </row>
+    <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6315">
+        <v>999777</v>
+      </c>
+      <c r="B6315" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6315" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6315" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECF2173-6BA7-495B-B1D1-F2D03954C086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36480C08-4B5D-4BEF-82A0-68C0F11222C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -1691,7 +1691,7 @@
   <dimension ref="A1:D6315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6281" workbookViewId="0">
-      <selection activeCell="B6314" sqref="B6314"/>
+      <selection activeCell="A6316" sqref="A6316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90098,7 +90098,7 @@
     </row>
     <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6315">
-        <v>999777</v>
+        <v>989898</v>
       </c>
       <c r="B6315" s="1">
         <v>0</v>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36480C08-4B5D-4BEF-82A0-68C0F11222C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD4A989-C2D6-4DB2-B688-4712F34DDD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -90098,7 +90098,7 @@
     </row>
     <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6315">
-        <v>989898</v>
+        <v>919191</v>
       </c>
       <c r="B6315" s="1">
         <v>0</v>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD4A989-C2D6-4DB2-B688-4712F34DDD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F331750A-EAFD-48D2-83F3-8B559C53D110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F331750A-EAFD-48D2-83F3-8B559C53D110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BC3CD2-F905-49D6-B5BD-08FD30B0083F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BC3CD2-F905-49D6-B5BD-08FD30B0083F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ACF204-6589-487C-8C4E-6B181A043206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -90098,7 +90098,7 @@
     </row>
     <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6315">
-        <v>919191</v>
+        <v>989898</v>
       </c>
       <c r="B6315" s="1">
         <v>0</v>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ACF204-6589-487C-8C4E-6B181A043206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB5984F-A4CA-4E00-94B0-7B322ADEC102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12636" uniqueCount="434">
   <si>
     <t>Cliente</t>
   </si>
@@ -1325,6 +1325,9 @@
   <si>
     <t>hola</t>
   </si>
+  <si>
+    <t>.</t>
+  </si>
 </sst>
 </file>
 
@@ -1688,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6315"/>
+  <dimension ref="A1:D6318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6281" workbookViewId="0">
-      <selection activeCell="A6316" sqref="A6316"/>
+    <sheetView tabSelected="1" topLeftCell="A6283" workbookViewId="0">
+      <selection activeCell="B6317" sqref="B6317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90106,7 +90109,49 @@
       <c r="C6315" t="s">
         <v>432</v>
       </c>
-      <c r="D6315" t="s">
+      <c r="D6315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6316">
+        <v>929292</v>
+      </c>
+      <c r="B6316" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6316" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6316" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6317">
+        <v>939393</v>
+      </c>
+      <c r="B6317" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6317" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6317" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6318">
+        <v>0</v>
+      </c>
+      <c r="B6318" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6318">
+        <v>0</v>
+      </c>
+      <c r="D6318" t="s">
         <v>432</v>
       </c>
     </row>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB5984F-A4CA-4E00-94B0-7B322ADEC102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB4123E-246E-403E-BBBA-DA037736C39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12636" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12638" uniqueCount="434">
   <si>
     <t>Cliente</t>
   </si>
@@ -1691,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6318"/>
+  <dimension ref="A1:D6319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6283" workbookViewId="0">
-      <selection activeCell="B6317" sqref="B6317"/>
+    <sheetView tabSelected="1" topLeftCell="A6289" workbookViewId="0">
+      <selection activeCell="B6315" sqref="B6315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90155,6 +90155,20 @@
         <v>432</v>
       </c>
     </row>
+    <row r="6319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6319">
+        <v>959595</v>
+      </c>
+      <c r="B6319" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6319" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6319" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB4123E-246E-403E-BBBA-DA037736C39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D54A4-7D7D-4D5D-A44F-5C6D60CF17C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12638" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1325,9 +1325,6 @@
   <si>
     <t>hola</t>
   </si>
-  <si>
-    <t>.</t>
-  </si>
 </sst>
 </file>
 
@@ -1691,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6319"/>
+  <dimension ref="A1:D6314"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6289" workbookViewId="0">
-      <selection activeCell="B6315" sqref="B6315"/>
+      <selection activeCell="B6297" sqref="B6297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90099,76 +90096,6 @@
         <v>432</v>
       </c>
     </row>
-    <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6315">
-        <v>989898</v>
-      </c>
-      <c r="B6315" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6315" t="s">
-        <v>432</v>
-      </c>
-      <c r="D6315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6316">
-        <v>929292</v>
-      </c>
-      <c r="B6316" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6316" t="s">
-        <v>432</v>
-      </c>
-      <c r="D6316" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6317">
-        <v>939393</v>
-      </c>
-      <c r="B6317" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6317" t="s">
-        <v>433</v>
-      </c>
-      <c r="D6317" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6318">
-        <v>0</v>
-      </c>
-      <c r="B6318" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6318">
-        <v>0</v>
-      </c>
-      <c r="D6318" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6319">
-        <v>959595</v>
-      </c>
-      <c r="B6319" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6319" t="s">
-        <v>432</v>
-      </c>
-      <c r="D6319" t="s">
-        <v>432</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D54A4-7D7D-4D5D-A44F-5C6D60CF17C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3F59B0-9A9C-4F6A-87E6-80455BCC8550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1688,11 +1688,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6314"/>
+  <dimension ref="A1:D6315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6289" workbookViewId="0">
-      <selection activeCell="B6297" sqref="B6297"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -90096,6 +90094,20 @@
         <v>432</v>
       </c>
     </row>
+    <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6315">
+        <v>123123123</v>
+      </c>
+      <c r="B6315" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6315" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6315" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3F59B0-9A9C-4F6A-87E6-80455BCC8550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3374E662-16D2-4598-828E-9D0556239230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12634" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1688,9 +1688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6315"/>
+  <dimension ref="A1:D6316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6297" workbookViewId="0">
+      <selection activeCell="B6316" sqref="B6316:D6316"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -90108,6 +90110,20 @@
         <v>432</v>
       </c>
     </row>
+    <row r="6316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6316">
+        <v>456456456</v>
+      </c>
+      <c r="B6316" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6316" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6316" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3374E662-16D2-4598-828E-9D0556239230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A0AB65-ABBF-4242-B4CF-310D442B5292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12634" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12636" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1688,11 +1688,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6316"/>
+  <dimension ref="A1:D6317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6297" workbookViewId="0">
-      <selection activeCell="B6316" sqref="B6316:D6316"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -90124,6 +90122,20 @@
         <v>432</v>
       </c>
     </row>
+    <row r="6317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6317">
+        <v>789789789</v>
+      </c>
+      <c r="B6317" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6317" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6317" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A0AB65-ABBF-4242-B4CF-310D442B5292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C46F92-03AC-4FCA-95FA-C68471426B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12636" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12638" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1688,9 +1688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6317"/>
+  <dimension ref="A1:D6318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6298" workbookViewId="0">
+      <selection activeCell="B6317" sqref="B6317"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -90136,6 +90138,20 @@
         <v>432</v>
       </c>
     </row>
+    <row r="6318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6318">
+        <v>147147147</v>
+      </c>
+      <c r="B6318" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6318" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6318" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C46F92-03AC-4FCA-95FA-C68471426B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D253034E-5676-48EE-810B-FE30D54D7631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12638" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12640" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1688,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6318"/>
+  <dimension ref="A1:D6319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6298" workbookViewId="0">
-      <selection activeCell="B6317" sqref="B6317"/>
+    <sheetView tabSelected="1" topLeftCell="A6299" workbookViewId="0">
+      <selection activeCell="A6318" sqref="A6318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90152,6 +90152,20 @@
         <v>432</v>
       </c>
     </row>
+    <row r="6319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6319">
+        <v>159159159</v>
+      </c>
+      <c r="B6319" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6319" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6319" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D253034E-5676-48EE-810B-FE30D54D7631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C99744-276A-4946-BC4F-6FF0DB84906A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12640" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12642" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1688,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6319"/>
+  <dimension ref="A1:D6320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6299" workbookViewId="0">
-      <selection activeCell="A6318" sqref="A6318"/>
+    <sheetView tabSelected="1" topLeftCell="A6300" workbookViewId="0">
+      <selection activeCell="B6319" sqref="B6319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90166,6 +90166,20 @@
         <v>432</v>
       </c>
     </row>
+    <row r="6320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6320">
+        <v>321321321</v>
+      </c>
+      <c r="B6320" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6320" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6320" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C99744-276A-4946-BC4F-6FF0DB84906A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F2A28E-0B9E-4D21-85A2-C54F1A3E78C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12642" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12644" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1688,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6320"/>
+  <dimension ref="A1:D6321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6300" workbookViewId="0">
-      <selection activeCell="B6319" sqref="B6319"/>
+    <sheetView tabSelected="1" topLeftCell="A6301" workbookViewId="0">
+      <selection activeCell="B6321" sqref="B6321:D6321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90180,6 +90180,20 @@
         <v>432</v>
       </c>
     </row>
+    <row r="6321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6321">
+        <v>777888999</v>
+      </c>
+      <c r="B6321" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6321" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6321" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F2A28E-0B9E-4D21-85A2-C54F1A3E78C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167F05CD-AA08-4BB6-8B33-5A01A1BB57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12644" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12646" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1688,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6321"/>
+  <dimension ref="A1:D6322"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6301" workbookViewId="0">
-      <selection activeCell="B6321" sqref="B6321:D6321"/>
+      <selection activeCell="B6322" sqref="B6322:D6322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90194,6 +90194,20 @@
         <v>432</v>
       </c>
     </row>
+    <row r="6322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6322">
+        <v>111222333</v>
+      </c>
+      <c r="B6322" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6322" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6322" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167F05CD-AA08-4BB6-8B33-5A01A1BB57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE45C076-A0E6-4623-A36F-3B7E81E28E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12646" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12648" uniqueCount="433">
   <si>
     <t>Cliente</t>
   </si>
@@ -1688,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6322"/>
+  <dimension ref="A1:D6323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6301" workbookViewId="0">
-      <selection activeCell="B6322" sqref="B6322:D6322"/>
+    <sheetView tabSelected="1" topLeftCell="A6303" workbookViewId="0">
+      <selection activeCell="B6323" sqref="B6323:D6323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90208,6 +90208,20 @@
         <v>432</v>
       </c>
     </row>
+    <row r="6323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6323">
+        <v>444555666</v>
+      </c>
+      <c r="B6323" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6323" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6323" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40A8EE7-8A8B-46C5-A4D8-3E8C1188F16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6631CA46-A4A0-4BD1-BEF5-3FD6CE367A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1651DF02-9BA2-430B-995C-45E3ED011E83}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12624" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12626" uniqueCount="564">
   <si>
     <t>Cliente</t>
   </si>
@@ -1715,6 +1715,9 @@
   <si>
     <t xml:space="preserve">No Compro este Trimestre:  - Frizze - AM - Dada - SMF 21 - Don David - Trapiche Reserva , Finca Las Moras - Alaris  - Antares  - Gordons </t>
   </si>
+  <si>
+    <t>sa</t>
+  </si>
 </sst>
 </file>
 
@@ -2065,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D75B35-EFBC-4F43-8268-C92AE9FC32E6}">
-  <dimension ref="A1:D6311"/>
+  <dimension ref="A1:D6312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A6292" workbookViewId="0">
+      <selection activeCell="C6311" sqref="C6311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90427,6 +90430,20 @@
         <v>492</v>
       </c>
     </row>
+    <row r="6312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6312">
+        <v>919191</v>
+      </c>
+      <c r="B6312">
+        <v>0</v>
+      </c>
+      <c r="C6312" t="s">
+        <v>563</v>
+      </c>
+      <c r="D6312" t="s">
+        <v>563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/CSV.xlsx
+++ b/public/CSV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EC7A193-2211-450D-A641-FF20857232E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D5CDAE9-5FBD-4178-B832-BB415651FA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A4DEDC17-FF76-4044-A571-08561AD197B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07114378-7390-450B-8811-325A23FEDCE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
     <t>La sit: No compro Azucar este mes. Te faltan 0 para completar el Objetivo   , No compro:   Frizze  , Compra Aderezos y Margarinas. Ofrece las Promos</t>
   </si>
   <si>
-    <t>, llevando 1 caja de dada o AM o FLM o Alaris tenes un 33%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
+    <t>, llevando 1 caja de dada o AM o FLM o Alaris tenes un 22%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
     <t>, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, llevando 6 botellas de dada - AM - FLM y Alaris tenes un 33% en todo, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, llevando 1 botella de SMF Raspberry + 1 frizze + 1 gordons pink. Tenes un 50% en el SMF y 5% en el resto , 19% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
@@ -576,7 +576,7 @@
     <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
-    <t>, llevando 1 caja de dada o AM o FLM o Alaris tenes un 33%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, Fiambres! A este Cliente le podes entregar NUYUN PALETA (VIOLETA) a Credito x 7 días. Hacemos boleta contra Boleta, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
+    <t>, llevando 1 caja de dada o AM o FLM o Alaris tenes un 22%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, Fiambres! A este Cliente le podes entregar NUYUN PALETA (VIOLETA) a Credito x 7 días. Hacemos boleta contra Boleta, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
     <t>La sit: No compro Azucar este mes. Te faltan 0 para completar el Objetivo   , No compro:   Dada -   AM -  , No Compra Aderezos y Margarinas. Ofrece las Promos</t>
@@ -591,7 +591,7 @@
     <t>La sit: Compro Azucar este mes. Te faltan 0 para completar el Objetivo  , No compro:   Frizze  , No Compra Aderezos y Margarinas. Ofrece las Promos</t>
   </si>
   <si>
-    <t>, llevando 1 caja de dada o AM o FLM o Alaris tenes un 33%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, Fiambres! A este Cliente le podes entregar NUYUN PALETA (VIOLETA) a Credito x 7 días. Hacemos boleta contra Boleta, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 15% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
+    <t>, llevando 1 caja de dada o AM o FLM o Alaris tenes un 22%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, Fiambres! A este Cliente le podes entregar NUYUN PALETA (VIOLETA) a Credito x 7 días. Hacemos boleta contra Boleta, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 15% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
     <t>, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, llevando 6 botellas de dada - AM - FLM y Alaris tenes un 33% en todo, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, llevando 1 botella de SMF Raspberry + 1 frizze + 1 gordons pink. Tenes un 50% en el SMF y 5% en el resto , 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
@@ -603,7 +603,7 @@
     <t>, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, Fiambres! A este Cliente le podes entregar NUYUN PALETA (VIOLETA) a Credito x 7 días. Hacemos boleta contra Boleta, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
-    <t>, llevando 1 caja de dada o AM o FLM o Alaris tenes un 33%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
+    <t>, llevando 1 caja de dada o AM o FLM o Alaris tenes un 22%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
     <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, llevando 6 botellas de dada - AM - FLM y Alaris tenes un 33% en todo, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, llevando 1 botella de SMF Raspberry + 1 frizze + 1 gordons pink. Tenes un 50% en el SMF y 5% en el resto , 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
@@ -612,7 +612,7 @@
     <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, llevando 6 botellas de dada - AM - FLM y Alaris tenes un 33% en todo, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, llevando 1 botella de SMF Raspberry + 1 frizze + 1 gordons pink. Tenes un 50% en el SMF y 5% en el resto , 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
-    <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, llevando 1 caja de dada o AM o FLM o Alaris tenes un 33%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
+    <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, llevando 1 caja de dada o AM o FLM o Alaris tenes un 22%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
     <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, llevando 6 botellas de dada - AM - FLM y Alaris tenes un 33% en todo, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, llevando 1 botella de SMF Raspberry + 1 frizze + 1 gordons pink. Tenes un 50% en el SMF y 5% en el resto , 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 19% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
@@ -621,7 +621,7 @@
     <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, llevando 6 botellas de dada - AM - FLM y Alaris tenes un 33% en todo, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, llevando 1 botella de SMF Raspberry + 1 frizze + 1 gordons pink. Tenes un 50% en el SMF y 5% en el resto , 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 19% llevando desde un Jamon Sadia, 11% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
-    <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, llevando 1 caja de dada o AM o FLM o Alaris tenes un 33%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
+    <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, llevando 1 caja de dada o AM o FLM o Alaris tenes un 22%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
     <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, llevando 6 botellas de dada - AM - FLM y Alaris tenes un 33% en todo, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, llevando 1 botella de SMF Raspberry + 1 frizze + 1 gordons pink. Tenes un 50% en el SMF y 5% en el resto , Fiambres! A este Cliente le podes entregar NUYUN PALETA (VIOLETA) a Credito x 7 días. Hacemos boleta contra Boleta, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
@@ -654,10 +654,10 @@
     <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 19% llevando desde un Jamon Sadia, 11% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
-    <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, llevando 1 caja de dada o AM o FLM o Alaris tenes un 33%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 19% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
+    <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, llevando 1 caja de dada o AM o FLM o Alaris tenes un 22%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 19% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
-    <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, llevando 1 caja de dada o AM o FLM o Alaris tenes un 33%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, Fiambres! A este Cliente le podes entregar NUYUN PALETA (VIOLETA) a Credito x 7 días. Hacemos boleta contra Boleta, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
+    <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, llevando 1 caja de dada o AM o FLM o Alaris tenes un 22%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, Fiambres! A este Cliente le podes entregar NUYUN PALETA (VIOLETA) a Credito x 7 días. Hacemos boleta contra Boleta, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 23% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
     <t>La sit: No compro Azucar este mes. Te faltan 0 para completar el Objetivo   , No compro:   AM -  , Compra Aderezos y Margarinas. Ofrece las Promos</t>
@@ -666,13 +666,13 @@
     <t>La sit: Compro Azucar este mes. Te faltan 0 para completar el Objetivo  , No compro:   AM -   Frizze  , Compra Aderezos y Margarinas. Ofrece las Promos</t>
   </si>
   <si>
-    <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, llevando 1 caja de dada o AM o FLM o Alaris tenes un 33%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 19% llevando desde un Jamon Sadia, 11% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
+    <t>, 13% en Softys llevando desde $50000 y 16% desde $100000, llevando 1 caja de dada o AM o FLM o Alaris tenes un 22%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 18% en snacks de molinos desde 1 bulto, 8.3% llevando SMF Lata de 12 en 12. Tope 120 bultos, 16.6% en latas de gordons y frizze llevando de 12 en 12. Tope 120 botellas, 19% llevando desde un Jamon Sadia, 11% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
     <t>La sit: No compro Azucar este mes. Te faltan 0 para completar el Objetivo   , No compro:   AM -  , No Compra Aderezos y Margarinas. Ofrece las Promos</t>
   </si>
   <si>
-    <t>, llevando 1 caja de dada o AM o FLM o Alaris tenes un 33%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 19% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
+    <t>, llevando 1 caja de dada o AM o FLM o Alaris tenes un 22%. Limite 1 vez por cliente, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 19% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
   </si>
   <si>
     <t>, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale. SKU: 31954, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 19% llevando desde un Jamon Sadia, 13% llevando desde una Paleta Sadia, 20% llevando desde una unidad del rallado Ibarazi, 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, FRESCURA! 50% En paleta de Cerdo Nuyun, Promo! 33.3% en el SKU 271112 (Mila de soja), Tenes un 20% en los medallones de verdura (SKU 271004-271005-271006), -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope</t>
@@ -720,7 +720,7 @@
     <t>, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale., 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, Frescura! 15% llevando desde una unidad del 754 y 16.6% desde una unidad del 756, -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope.</t>
   </si>
   <si>
-    <t>, 27% llevando 1 vino MSD y 17.6 llevando un fernet, llevando 1 caja de dada o AM o FLM o Alaris tenes un 33%. Limite 1 vez por cliente, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale., 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, Frescura! 15% llevando desde una unidad del 754 y 16.6% desde una unidad del 756, -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope.</t>
+    <t>, 27% llevando 1 vino MSD y 17.6 llevando un fernet, llevando 1 caja de dada o AM o FLM o Alaris tenes un 22%. Limite 1 vez por cliente, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale., 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, Frescura! 15% llevando desde una unidad del 754 y 16.6% desde una unidad del 756, -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope.</t>
   </si>
   <si>
     <t>No compro Azucar este mes. Te faltan 1260 para completar el Objetivo   , No compro:   Dada -   AM -   Frizze  , No Compra McCain. Ofrece Papas y Rebozados</t>
@@ -732,7 +732,7 @@
     <t>No compro Azucar este mes. Te faltan 1530 para completar el Objetivo   , No compro:   Dada -   AM -   Frizze  , No Compra McCain. Ofrece Papas y Rebozados</t>
   </si>
   <si>
-    <t>, llevando 1 caja de dada o AM o FLM o Alaris tenes un 33%. Limite 1 vez por cliente, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale., 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, Frescura! 15% llevando desde una unidad del 754 y 16.6% desde una unidad del 756, -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope.</t>
+    <t>, llevando 1 caja de dada o AM o FLM o Alaris tenes un 22%. Limite 1 vez por cliente, fiambres! Tenes un 28% llevando desde 1 unidad del tybo ibarazi, 24.6% llevando 10 bultos de azucar y 11% llevando desde 10 canale., 20% llevando desde 10 paquetes de azucar yafun. 25% desde 20 paquetes, Frescura! 15% llevando desde una unidad del 754 y 16.6% desde una unidad del 756, -44% desc en LEGUI x 3 botella. te queda 2825 la botella. Sale con 3 Botellas de MSD al 10%. Sin Tope.</t>
   </si>
   <si>
     <t>No compro Azucar este mes. Te faltan 1480 para completar el Objetivo   , No compro:   Frizze  , No Compra McCain. Ofrece Papas y Rebozados</t>
@@ -1389,11 +1389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F48BC5-88CF-45DB-9462-5A66D51EF9EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331E5E6C-8B30-4DE2-9F7C-3ABB23BB0639}">
   <dimension ref="A1:D6766"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
